--- a/data/df_videos_2019.xlsx
+++ b/data/df_videos_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzobehna/projects/Social-Computing_Final-Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F869DB0-589D-2543-AF29-6428E3B5726D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF47324-3306-2742-A631-6673CB1BCCD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{758387F9-C150-824D-B703-AC3F15FC9CAF}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="139">
   <si>
     <t>video_id</t>
   </si>
@@ -952,6 +952,12 @@
   </si>
   <si>
     <t>['sci-fi', 'short film', 'dust', 'watchdust', 'filmmakers', 'science-fiction', 'CGI', 'aliens', 'sci fi', 'science fiction', 'indie film', 'artificial intelligence', 'premiere', 'ai robot', 'artificial intelligence movie', 'movies', 'oats studios anthem', 'new premieres', 'watch live', 'anthology', 'twighlight zone', 'movie night', 'films', 'popcornsci-fi', 'indie film Sci-fi', 'dust youtube', 'sci-fi short', 'dust sci-fi', 'dust science fiction', 'free short film', 'free sci-fi short', 'free science fiction short', 'sci fi shorts', 'best short films']</t>
+  </si>
+  <si>
+    <t>tutorial</t>
+  </si>
+  <si>
+    <t>language</t>
   </si>
 </sst>
 </file>
@@ -1094,7 +1100,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1277,6 +1283,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1441,15 +1453,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1828,7 +1837,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:J21"/>
+      <selection activeCell="A15" sqref="A15:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1839,672 +1848,681 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>62350333</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>35400</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="2">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>25117758</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>15552</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="2">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>24484486</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>20436</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="2">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>10612549</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <v>9603</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="2">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>5009918</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <v>25641</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="2">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>3604620</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>888</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <v>27</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>3389458</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <v>12090</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="2">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="3">
         <v>3214208</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="3">
         <v>829</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="3">
         <v>27</v>
       </c>
-      <c r="K9" s="2"/>
+      <c r="K9" s="1" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>2804451</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
         <v>1731</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="3">
         <v>27</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>2382329</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="2">
         <v>5253</v>
       </c>
-      <c r="I11" t="s">
+      <c r="H11" s="2"/>
+      <c r="I11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="2">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <v>2302111</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="2">
         <v>874</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="2">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="3">
         <v>2103164</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="3">
         <v>2781</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="3">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="4">
         <v>1993664</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="4">
         <v>1296</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="4">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="4">
         <v>1836290</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="4">
         <v>3648</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="4">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="3">
         <v>1681440</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="3">
         <v>758</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="3">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="3">
         <v>1494455</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="3">
         <v>750</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="3">
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="3">
         <v>1408913</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="3">
         <v>536</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="3">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="3">
         <v>1325195</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="3">
         <v>1357</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="3">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="3">
         <v>1134373</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="3">
         <v>806</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="3">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="3">
         <v>1091168</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="3">
         <v>501</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="3">
         <v>1</v>
       </c>
     </row>
